--- a/data/stat probs/markelle fultz stat probs - condition.xlsx
+++ b/data/stat probs/markelle fultz stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -577,28 +577,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1571,28 +1571,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1893,28 +1893,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -2887,28 +2887,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -3813,1482 +3813,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44</v>
-      </c>
-      <c r="J3" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>44</v>
-      </c>
-      <c r="G5" t="n">
-        <v>89</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>56</v>
-      </c>
-      <c r="G6" t="n">
-        <v>89</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>56</v>
-      </c>
-      <c r="G7" t="n">
-        <v>78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>78</v>
-      </c>
-      <c r="G8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H8" t="n">
-        <v>44</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" t="n">
-        <v>89</v>
-      </c>
-      <c r="G9" t="n">
-        <v>33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>67</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>78</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>67</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>67</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>22</v>
-      </c>
-      <c r="H11" t="n">
-        <v>78</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" t="n">
-        <v>89</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>56</v>
-      </c>
-      <c r="D13" t="n">
-        <v>44</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>44</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>33</v>
-      </c>
-      <c r="D15" t="n">
-        <v>67</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>33</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>33</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>89</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>89</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>89</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" t="n">
-        <v>89</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44</v>
-      </c>
-      <c r="J3" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>44</v>
-      </c>
-      <c r="G5" t="n">
-        <v>89</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>56</v>
-      </c>
-      <c r="G6" t="n">
-        <v>89</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>56</v>
-      </c>
-      <c r="G7" t="n">
-        <v>78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>78</v>
-      </c>
-      <c r="G8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H8" t="n">
-        <v>44</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" t="n">
-        <v>89</v>
-      </c>
-      <c r="G9" t="n">
-        <v>33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>67</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>78</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>67</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>67</v>
-      </c>
-      <c r="D11" t="n">
-        <v>33</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>22</v>
-      </c>
-      <c r="H11" t="n">
-        <v>78</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" t="n">
-        <v>89</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>56</v>
-      </c>
-      <c r="D13" t="n">
-        <v>44</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>44</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>33</v>
-      </c>
-      <c r="D15" t="n">
-        <v>67</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>33</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>33</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>89</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" t="n">
-        <v>89</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>89</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" t="n">
-        <v>89</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5357,22 +3881,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5706,7 +4230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5775,22 +4299,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6116,6 +4640,1802 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>70</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>78</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>32</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>82</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" t="n">
+        <v>62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>97</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>95</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>67</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>97</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H10" t="n">
+        <v>70</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>80</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>72</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>95</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>57</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>53</v>
+      </c>
+      <c r="D16" t="n">
+        <v>47</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>47</v>
+      </c>
+      <c r="D17" t="n">
+        <v>53</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" t="n">
+        <v>60</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="n">
+        <v>70</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>80</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" t="n">
+        <v>83</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>90</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>93</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>70</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>78</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>32</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>82</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" t="n">
+        <v>62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>97</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>95</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>67</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>97</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H10" t="n">
+        <v>70</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>80</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>72</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>95</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>70</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>57</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>53</v>
+      </c>
+      <c r="D16" t="n">
+        <v>47</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>47</v>
+      </c>
+      <c r="D17" t="n">
+        <v>53</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" t="n">
+        <v>60</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="n">
+        <v>70</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>80</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" t="n">
+        <v>83</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>90</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>93</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6193,28 +6513,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -6243,10 +6563,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -6257,16 +6577,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -6275,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -6289,28 +6609,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -6321,22 +6641,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6353,22 +6673,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H7" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -6385,22 +6705,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H8" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6417,16 +6737,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
         <v>33</v>
@@ -6449,22 +6769,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -6481,10 +6801,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6493,10 +6813,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6513,10 +6833,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6525,10 +6845,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6545,10 +6865,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6577,10 +6897,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6609,10 +6929,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6641,10 +6961,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6673,10 +6993,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6705,10 +7025,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6737,10 +7057,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6769,10 +7089,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6801,10 +7121,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6833,10 +7153,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -6897,10 +7217,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6929,10 +7249,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -6961,10 +7281,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -6993,10 +7313,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -7091,28 +7411,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -7141,10 +7461,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -7155,16 +7475,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -7173,10 +7493,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7507,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -7219,22 +7539,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -7251,22 +7571,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H7" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -7283,22 +7603,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H8" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -7315,16 +7635,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
         <v>33</v>
@@ -7347,22 +7667,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7379,10 +7699,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7391,10 +7711,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -7411,10 +7731,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7423,10 +7743,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -7443,10 +7763,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7475,10 +7795,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7507,10 +7827,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7539,10 +7859,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7571,10 +7891,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7603,10 +7923,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7635,10 +7955,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7667,10 +7987,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7699,10 +8019,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7731,10 +8051,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7795,10 +8115,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7827,10 +8147,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7859,10 +8179,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -7891,10 +8211,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -7926,7 +8246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7989,28 +8309,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -8039,10 +8359,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -8059,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -8071,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -8091,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -8123,10 +8443,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -8161,10 +8481,10 @@
         <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8193,10 +8513,10 @@
         <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8219,16 +8539,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -8245,10 +8565,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8257,10 +8577,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -8277,10 +8597,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8289,10 +8609,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -8309,10 +8629,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8437,10 +8757,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8469,10 +8789,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8501,10 +8821,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8533,10 +8853,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8565,10 +8885,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -8597,10 +8917,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -8629,10 +8949,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -8661,10 +8981,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -8693,10 +9013,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -8725,10 +9045,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -8746,70 +9066,6 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>17</v>
-      </c>
-      <c r="D26" t="n">
-        <v>83</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>17</v>
-      </c>
-      <c r="D27" t="n">
-        <v>83</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8887,28 +9143,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -9818,7 +10074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9881,28 +10137,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -9931,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -9951,10 +10207,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -9963,10 +10219,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -9983,10 +10239,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -10015,10 +10271,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -10053,10 +10309,10 @@
         <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -10085,10 +10341,10 @@
         <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -10111,16 +10367,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -10137,10 +10393,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -10149,10 +10405,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -10169,10 +10425,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -10181,10 +10437,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -10201,10 +10457,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10329,10 +10585,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10361,10 +10617,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -10393,10 +10649,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10425,10 +10681,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -10457,10 +10713,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -10489,10 +10745,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10521,10 +10777,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -10553,10 +10809,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -10585,10 +10841,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -10617,10 +10873,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -10638,70 +10894,6 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>17</v>
-      </c>
-      <c r="D26" t="n">
-        <v>83</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>17</v>
-      </c>
-      <c r="D27" t="n">
-        <v>83</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10779,28 +10971,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -10829,10 +11021,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -10849,10 +11041,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -10881,10 +11073,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -10913,10 +11105,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -10945,16 +11137,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -10977,16 +11169,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -11015,10 +11207,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -11035,10 +11227,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -11067,10 +11259,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -11099,10 +11291,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -11131,10 +11323,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -11195,10 +11387,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -11227,10 +11419,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -11259,10 +11451,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -11291,10 +11483,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -11323,10 +11515,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -11355,10 +11547,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -11387,10 +11579,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -11419,10 +11611,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -11451,10 +11643,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -11483,10 +11675,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -11515,10 +11707,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -11613,28 +11805,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -11663,10 +11855,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -11683,10 +11875,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -11715,10 +11907,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -11747,10 +11939,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -11779,16 +11971,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -11811,16 +12003,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -11849,10 +12041,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -11869,10 +12061,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -11901,10 +12093,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -11933,10 +12125,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -11965,10 +12157,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -12029,10 +12221,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -12061,10 +12253,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -12093,10 +12285,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -12125,10 +12317,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12157,10 +12349,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -12189,10 +12381,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -12221,10 +12413,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12253,10 +12445,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -12285,10 +12477,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -12317,10 +12509,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -12349,10 +12541,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -12447,28 +12639,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -12497,10 +12689,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -12517,10 +12709,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -12549,10 +12741,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
         <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -12581,16 +12773,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -12613,16 +12805,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G7" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -12645,16 +12837,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G8" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -12683,10 +12875,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -12703,10 +12895,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -12715,10 +12907,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -12735,10 +12927,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -12767,10 +12959,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -12799,10 +12991,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -12831,10 +13023,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -12863,10 +13055,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -12895,10 +13087,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -12927,10 +13119,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -12959,10 +13151,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12991,10 +13183,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -13023,10 +13215,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -13055,10 +13247,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13087,10 +13279,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -13119,10 +13311,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -13151,10 +13343,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -13183,10 +13375,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -13281,28 +13473,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -13331,10 +13523,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -13351,10 +13543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -13383,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
         <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -13415,16 +13607,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -13447,16 +13639,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G7" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -13479,16 +13671,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G8" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -13517,10 +13709,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -13537,10 +13729,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -13549,10 +13741,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -13569,10 +13761,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -13601,10 +13793,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -13633,10 +13825,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -13665,10 +13857,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -13697,10 +13889,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -13729,10 +13921,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -13761,10 +13953,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -13793,10 +13985,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -13825,10 +14017,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -13857,10 +14049,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -13889,10 +14081,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13921,10 +14113,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -13953,10 +14145,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -13985,10 +14177,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -14017,10 +14209,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -14115,28 +14307,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -14661,28 +14853,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -15207,28 +15399,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -16105,28 +16297,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -17003,22 +17195,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17453,28 +17645,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -18351,22 +18543,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18801,22 +18993,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19571,22 +19763,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20341,28 +20533,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20951,28 +21143,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21561,28 +21753,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -22427,28 +22619,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -23293,28 +23485,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24287,28 +24479,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25281,28 +25473,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -26275,28 +26467,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -27173,28 +27365,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -28167,22 +28359,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29065,22 +29257,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29963,22 +30155,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30477,22 +30669,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30991,28 +31183,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31889,28 +32081,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32787,28 +32979,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -33557,28 +33749,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -34327,22 +34519,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35001,28 +35193,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -35995,22 +36187,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36669,22 +36861,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37279,22 +37471,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -37889,28 +38081,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38435,28 +38627,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38981,22 +39173,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39655,22 +39847,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40329,28 +40521,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40875,28 +41067,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41421,28 +41613,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -42127,28 +42319,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -43121,28 +43313,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43827,28 +44019,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44533,28 +44725,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45239,22 +45431,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45913,22 +46105,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -46587,28 +46779,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -47325,28 +47517,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -48063,22 +48255,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -48641,22 +48833,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49219,22 +49411,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49893,28 +50085,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -50535,22 +50727,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51209,22 +51401,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51691,22 +51883,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -52173,22 +52365,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -52687,22 +52879,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -53201,28 +53393,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -53939,28 +54131,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54677,22 +54869,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55287,22 +55479,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55897,22 +56089,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -56507,28 +56699,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -57149,22 +57341,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -57759,22 +57951,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -58273,22 +58465,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -58787,28 +58979,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -59397,28 +59589,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -60007,22 +60199,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -60361,22 +60553,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -60715,22 +60907,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -61165,22 +61357,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -61615,28 +61807,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -62481,28 +62673,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -62803,28 +62995,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
